--- a/Arduino-Leonardo/Analysis/Season-of-Birth/data/dataDemo-MT.xlsx
+++ b/Arduino-Leonardo/Analysis/Season-of-Birth/data/dataDemo-MT.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E624EA2-68A7-4E4D-8C7B-93D8DD62F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dturner\Documents\GitHub\ICVS-Code\Arduino-Leonardo\Analysis\Season-of-Birth\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="3" r:id="rId1"/>
     <sheet name="RLM" sheetId="1" r:id="rId2"/>
     <sheet name="HFP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -485,7 +489,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -938,11 +942,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A8EF4D-6392-4197-9992-77762A93BE1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1768,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="K17" t="s">
         <v>28</v>
@@ -3448,7 +3452,7 @@
       <c r="Y52" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X42">
+  <sortState ref="A2:X42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <conditionalFormatting sqref="M2:O56">
@@ -3478,7 +3482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3557,7 +3561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F695BD-EB9E-41D5-9BFF-433579B7391E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
